--- a/trunk/yaol-p-xml/queries/xmark frequent word.xlsx
+++ b/trunk/yaol-p-xml/queries/xmark frequent word.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="1006">
   <si>
     <t>http</t>
   </si>
@@ -3391,8 +3391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2001"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14414,8 +14414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14469,42 +14469,42 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;IF(G2="","",",")&amp;G2</f>
-        <v>male,college,new,bell,she</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>duke,berkeley,head,nurse,mehrdad</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>216</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="I2">
         <f>VLOOKUP(B2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>19836</v>
+        <v>6772</v>
       </c>
       <c r="J2">
         <f>VLOOKUP(C2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10064</v>
+        <v>3985</v>
       </c>
       <c r="K2">
         <f>VLOOKUP(D2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>6743</v>
+        <v>4173</v>
       </c>
       <c r="L2">
         <f>VLOOKUP(E2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4564</v>
+        <v>4034</v>
       </c>
       <c r="M2">
         <f>VLOOKUP(F2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4284</v>
+        <v>20532</v>
       </c>
       <c r="N2" t="e">
         <f>VLOOKUP(G2,Sheet1!$A:$B,2,FALSE)</f>
@@ -14514,42 +14514,42 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A51" si="0">B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;IF(G3="","",",")&amp;G3</f>
-        <v>new,bell,temple,fortune,shame</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>177</v>
+        <v>high,berkeley,head,nurse,female</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(B3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>6743</v>
+        <v>13042</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(C3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4564</v>
+        <v>3985</v>
       </c>
       <c r="K3">
         <f>VLOOKUP(D3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3940</v>
+        <v>4173</v>
       </c>
       <c r="L3">
         <f>VLOOKUP(E3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4273</v>
+        <v>4034</v>
       </c>
       <c r="M3">
         <f>VLOOKUP(F3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4352</v>
+        <v>20085</v>
       </c>
       <c r="N3" t="e">
         <f>VLOOKUP(G3,Sheet1!$A:$B,2,FALSE)</f>
@@ -14559,90 +14559,87 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>new,bell,tears,ear,love,fight</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>school,berkeley,head,nurse,ask</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>216</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(B4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>6743</v>
+        <v>21131</v>
       </c>
       <c r="J4">
         <f>VLOOKUP(C4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4564</v>
+        <v>3985</v>
       </c>
       <c r="K4">
         <f>VLOOKUP(D4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3934</v>
+        <v>4173</v>
       </c>
       <c r="L4">
         <f>VLOOKUP(E4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4250</v>
+        <v>4034</v>
       </c>
       <c r="M4">
         <f>VLOOKUP(F4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4184</v>
-      </c>
-      <c r="N4">
+        <v>6031</v>
+      </c>
+      <c r="N4" t="e">
         <f>VLOOKUP(G4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3957</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>new,bell,action,good,high</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>college,berkeley,head,nurse,put</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>216</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(B5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>6743</v>
+        <v>10064</v>
       </c>
       <c r="J5">
         <f>VLOOKUP(C5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4564</v>
+        <v>3985</v>
       </c>
       <c r="K5">
         <f>VLOOKUP(D5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3891</v>
+        <v>4173</v>
       </c>
       <c r="L5">
         <f>VLOOKUP(E5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4169</v>
+        <v>4034</v>
       </c>
       <c r="M5">
         <f>VLOOKUP(F5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>13042</v>
+        <v>3884</v>
       </c>
       <c r="N5" t="e">
         <f>VLOOKUP(G5,Sheet1!$A:$B,2,FALSE)</f>
@@ -14652,22 +14649,22 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>new,bell,wife,head,nurse</v>
+        <v>new,berkeley,head,nurse,ship</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>177</v>
+      <c r="C6" t="s">
+        <v>216</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(B6,Sheet1!$A:$B,2,FALSE)</f>
@@ -14675,19 +14672,19 @@
       </c>
       <c r="J6">
         <f>VLOOKUP(C6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4564</v>
+        <v>3985</v>
       </c>
       <c r="K6">
         <f>VLOOKUP(D6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3880</v>
+        <v>4173</v>
       </c>
       <c r="L6">
         <f>VLOOKUP(E6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4173</v>
+        <v>4034</v>
       </c>
       <c r="M6">
         <f>VLOOKUP(F6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4034</v>
+        <v>99175</v>
       </c>
       <c r="N6" t="e">
         <f>VLOOKUP(G6,Sheet1!$A:$B,2,FALSE)</f>
@@ -14697,86 +14694,83 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>new,bell,dear,state,lord,set</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>177</v>
+        <v>male,berkeley,head,nurse,lord</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" t="s">
         <v>204</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(B7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>6743</v>
+        <v>19836</v>
       </c>
       <c r="J7">
         <f>VLOOKUP(C7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4564</v>
+        <v>3985</v>
       </c>
       <c r="K7">
         <f>VLOOKUP(D7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3859</v>
+        <v>4173</v>
       </c>
       <c r="L7">
         <f>VLOOKUP(E7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4115</v>
+        <v>4034</v>
       </c>
       <c r="M7">
         <f>VLOOKUP(F7,Sheet1!$A:$B,2,FALSE)</f>
         <v>4047</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="e">
         <f>VLOOKUP(G7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3942</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>new,bell,purpose,time,romeo</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>177</v>
+        <v>description,berkeley,head,nurse,romeo</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>216</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" t="s">
         <v>210</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(B8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>6743</v>
+        <v>66194</v>
       </c>
       <c r="J8">
         <f>VLOOKUP(C8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4564</v>
+        <v>3985</v>
       </c>
       <c r="K8">
         <f>VLOOKUP(D8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3845</v>
+        <v>4173</v>
       </c>
       <c r="L8">
         <f>VLOOKUP(E8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4068</v>
+        <v>4034</v>
       </c>
       <c r="M8">
         <f>VLOOKUP(F8,Sheet1!$A:$B,2,FALSE)</f>
@@ -14790,42 +14784,42 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>new,bell,weep,berkeley,school</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>fixed,berkeley,head,nurse,forth</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>216</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>162</v>
+        <v>206</v>
+      </c>
+      <c r="F9" t="s">
+        <v>170</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(B9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>6743</v>
+        <v>66765</v>
       </c>
       <c r="J9">
         <f>VLOOKUP(C9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4564</v>
+        <v>3985</v>
       </c>
       <c r="K9">
         <f>VLOOKUP(D9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3822</v>
+        <v>4173</v>
       </c>
       <c r="L9">
         <f>VLOOKUP(E9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3985</v>
+        <v>4034</v>
       </c>
       <c r="M9">
         <f>VLOOKUP(F9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>21131</v>
+        <v>6062</v>
       </c>
       <c r="N9" t="e">
         <f>VLOOKUP(G9,Sheet1!$A:$B,2,FALSE)</f>
@@ -14834,43 +14828,43 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>B10&amp;","&amp;C10&amp;","&amp;D10&amp;","&amp;E10&amp;","&amp;F10&amp;IF(G10="","",",")&amp;G10</f>
-        <v>new,bell,swear,enter,little</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>177</v>
+        <f t="shared" si="0"/>
+        <v>york,berkeley,head,nurse,graduate</v>
+      </c>
+      <c r="B10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" t="s">
+        <v>216</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(B10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>6743</v>
+        <v>3747</v>
       </c>
       <c r="J10">
         <f>VLOOKUP(C10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4564</v>
+        <v>3985</v>
       </c>
       <c r="K10">
         <f>VLOOKUP(D10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3793</v>
+        <v>4173</v>
       </c>
       <c r="L10">
         <f>VLOOKUP(E10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4118</v>
+        <v>4034</v>
       </c>
       <c r="M10">
         <f>VLOOKUP(F10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4020</v>
+        <v>9640</v>
       </c>
       <c r="N10" t="e">
         <f>VLOOKUP(G10,Sheet1!$A:$B,2,FALSE)</f>
@@ -14880,1281 +14874,168 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>new,bell,strange,more,mine</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>177</v>
+        <v>forth,berkeley,head,nurse,org</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>216</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(B11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>6743</v>
+        <v>6062</v>
       </c>
       <c r="J11">
         <f>VLOOKUP(C11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4564</v>
+        <v>3985</v>
       </c>
       <c r="K11">
         <f>VLOOKUP(D11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3787</v>
+        <v>4173</v>
       </c>
       <c r="L11">
         <f>VLOOKUP(E11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>3996</v>
+        <v>4034</v>
       </c>
       <c r="M11">
         <f>VLOOKUP(F11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4190</v>
+        <v>8546</v>
       </c>
       <c r="N11" t="e">
         <f>VLOOKUP(G11,Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I12" t="e">
-        <f>VLOOKUP(B12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" t="e">
-        <f>VLOOKUP(C12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K12" t="e">
-        <f>VLOOKUP(D12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" t="e">
-        <f>VLOOKUP(E12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" t="e">
-        <f>VLOOKUP(F12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N12" t="e">
-        <f>VLOOKUP(G12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="I13" t="e">
-        <f>VLOOKUP(B13,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" t="e">
-        <f>VLOOKUP(C13,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K13" t="e">
-        <f>VLOOKUP(D13,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" t="e">
-        <f>VLOOKUP(E13,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" t="e">
-        <f>VLOOKUP(F13,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N13" t="e">
-        <f>VLOOKUP(G13,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="I14" t="e">
-        <f>VLOOKUP(B14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J14" t="e">
-        <f>VLOOKUP(C14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K14" t="e">
-        <f>VLOOKUP(D14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" t="e">
-        <f>VLOOKUP(E14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" t="e">
-        <f>VLOOKUP(F14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N14" t="e">
-        <f>VLOOKUP(G14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="I15" t="e">
-        <f>VLOOKUP(B15,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" t="e">
-        <f>VLOOKUP(C15,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K15" t="e">
-        <f>VLOOKUP(D15,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" t="e">
-        <f>VLOOKUP(E15,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" t="e">
-        <f>VLOOKUP(F15,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" t="e">
-        <f>VLOOKUP(G15,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="I16" t="e">
-        <f>VLOOKUP(B16,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J16" t="e">
-        <f>VLOOKUP(C16,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K16" t="e">
-        <f>VLOOKUP(D16,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" t="e">
-        <f>VLOOKUP(E16,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M16" t="e">
-        <f>VLOOKUP(F16,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N16" t="e">
-        <f>VLOOKUP(G16,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I17" t="e">
-        <f>VLOOKUP(B17,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J17" t="e">
-        <f>VLOOKUP(C17,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K17" t="e">
-        <f>VLOOKUP(D17,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" t="e">
-        <f>VLOOKUP(E17,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M17" t="e">
-        <f>VLOOKUP(F17,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N17" t="e">
-        <f>VLOOKUP(G17,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I18" t="e">
-        <f>VLOOKUP(B18,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J18" t="e">
-        <f>VLOOKUP(C18,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K18" t="e">
-        <f>VLOOKUP(D18,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" t="e">
-        <f>VLOOKUP(E18,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M18" t="e">
-        <f>VLOOKUP(F18,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N18" t="e">
-        <f>VLOOKUP(G18,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I19" t="e">
-        <f>VLOOKUP(B19,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" t="e">
-        <f>VLOOKUP(C19,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K19" t="e">
-        <f>VLOOKUP(D19,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" t="e">
-        <f>VLOOKUP(E19,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M19" t="e">
-        <f>VLOOKUP(F19,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N19" t="e">
-        <f>VLOOKUP(G19,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I20" t="e">
-        <f>VLOOKUP(B20,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" t="e">
-        <f>VLOOKUP(C20,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K20" t="e">
-        <f>VLOOKUP(D20,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" t="e">
-        <f>VLOOKUP(E20,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M20" t="e">
-        <f>VLOOKUP(F20,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N20" t="e">
-        <f>VLOOKUP(G20,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I21" t="e">
-        <f>VLOOKUP(B21,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J21" t="e">
-        <f>VLOOKUP(C21,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K21" t="e">
-        <f>VLOOKUP(D21,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" t="e">
-        <f>VLOOKUP(E21,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M21" t="e">
-        <f>VLOOKUP(F21,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N21" t="e">
-        <f>VLOOKUP(G21,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I22" t="e">
-        <f>VLOOKUP(B22,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" t="e">
-        <f>VLOOKUP(C22,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K22" t="e">
-        <f>VLOOKUP(D22,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" t="e">
-        <f>VLOOKUP(E22,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M22" t="e">
-        <f>VLOOKUP(F22,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N22" t="e">
-        <f>VLOOKUP(G22,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I23" t="e">
-        <f>VLOOKUP(B23,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J23" t="e">
-        <f>VLOOKUP(C23,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K23" t="e">
-        <f>VLOOKUP(D23,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L23" t="e">
-        <f>VLOOKUP(E23,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M23" t="e">
-        <f>VLOOKUP(F23,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N23" t="e">
-        <f>VLOOKUP(G23,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I24" t="e">
-        <f>VLOOKUP(B24,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" t="e">
-        <f>VLOOKUP(C24,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K24" t="e">
-        <f>VLOOKUP(D24,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" t="e">
-        <f>VLOOKUP(E24,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M24" t="e">
-        <f>VLOOKUP(F24,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N24" t="e">
-        <f>VLOOKUP(G24,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I25" t="e">
-        <f>VLOOKUP(B25,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J25" t="e">
-        <f>VLOOKUP(C25,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K25" t="e">
-        <f>VLOOKUP(D25,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L25" t="e">
-        <f>VLOOKUP(E25,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M25" t="e">
-        <f>VLOOKUP(F25,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N25" t="e">
-        <f>VLOOKUP(G25,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I26" t="e">
-        <f>VLOOKUP(B26,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J26" t="e">
-        <f>VLOOKUP(C26,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K26" t="e">
-        <f>VLOOKUP(D26,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L26" t="e">
-        <f>VLOOKUP(E26,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M26" t="e">
-        <f>VLOOKUP(F26,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N26" t="e">
-        <f>VLOOKUP(G26,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I27" t="e">
-        <f>VLOOKUP(B27,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J27" t="e">
-        <f>VLOOKUP(C27,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K27" t="e">
-        <f>VLOOKUP(D27,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L27" t="e">
-        <f>VLOOKUP(E27,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M27" t="e">
-        <f>VLOOKUP(F27,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N27" t="e">
-        <f>VLOOKUP(G27,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I28" t="e">
-        <f>VLOOKUP(B28,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J28" t="e">
-        <f>VLOOKUP(C28,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K28" t="e">
-        <f>VLOOKUP(D28,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L28" t="e">
-        <f>VLOOKUP(E28,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M28" t="e">
-        <f>VLOOKUP(F28,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N28" t="e">
-        <f>VLOOKUP(G28,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I29" t="e">
-        <f>VLOOKUP(B29,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J29" t="e">
-        <f>VLOOKUP(C29,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K29" t="e">
-        <f>VLOOKUP(D29,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L29" t="e">
-        <f>VLOOKUP(E29,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M29" t="e">
-        <f>VLOOKUP(F29,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N29" t="e">
-        <f>VLOOKUP(G29,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I30" t="e">
-        <f>VLOOKUP(B30,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J30" t="e">
-        <f>VLOOKUP(C30,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K30" t="e">
-        <f>VLOOKUP(D30,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L30" t="e">
-        <f>VLOOKUP(E30,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M30" t="e">
-        <f>VLOOKUP(F30,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N30" t="e">
-        <f>VLOOKUP(G30,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I31" t="e">
-        <f>VLOOKUP(B31,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" t="e">
-        <f>VLOOKUP(C31,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K31" t="e">
-        <f>VLOOKUP(D31,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L31" t="e">
-        <f>VLOOKUP(E31,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M31" t="e">
-        <f>VLOOKUP(F31,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N31" t="e">
-        <f>VLOOKUP(G31,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
-      <c r="I32" t="e">
-        <f>VLOOKUP(B32,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J32" t="e">
-        <f>VLOOKUP(C32,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K32" t="e">
-        <f>VLOOKUP(D32,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L32" t="e">
-        <f>VLOOKUP(E32,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M32" t="e">
-        <f>VLOOKUP(F32,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N32" t="e">
-        <f>VLOOKUP(G32,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="I33" t="e">
-        <f>VLOOKUP(B33,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J33" t="e">
-        <f>VLOOKUP(C33,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K33" t="e">
-        <f>VLOOKUP(D33,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L33" t="e">
-        <f>VLOOKUP(E33,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M33" t="e">
-        <f>VLOOKUP(F33,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N33" t="e">
-        <f>VLOOKUP(G33,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="E34" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
-      <c r="I34" t="e">
-        <f>VLOOKUP(B34,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J34" t="e">
-        <f>VLOOKUP(C34,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K34" t="e">
-        <f>VLOOKUP(D34,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L34" t="e">
-        <f>VLOOKUP(E34,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M34" t="e">
-        <f>VLOOKUP(F34,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N34" t="e">
-        <f>VLOOKUP(G34,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="I35" t="e">
-        <f>VLOOKUP(B35,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J35" t="e">
-        <f>VLOOKUP(C35,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K35" t="e">
-        <f>VLOOKUP(D35,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L35" t="e">
-        <f>VLOOKUP(E35,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M35" t="e">
-        <f>VLOOKUP(F35,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N35" t="e">
-        <f>VLOOKUP(G35,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="I36" t="e">
-        <f>VLOOKUP(B36,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J36" t="e">
-        <f>VLOOKUP(C36,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K36" t="e">
-        <f>VLOOKUP(D36,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L36" t="e">
-        <f>VLOOKUP(E36,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M36" t="e">
-        <f>VLOOKUP(F36,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N36" t="e">
-        <f>VLOOKUP(G36,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" s="1"/>
-      <c r="I37" t="e">
-        <f>VLOOKUP(B37,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J37" t="e">
-        <f>VLOOKUP(C37,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K37" t="e">
-        <f>VLOOKUP(D37,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L37" t="e">
-        <f>VLOOKUP(E37,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M37" t="e">
-        <f>VLOOKUP(F37,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N37" t="e">
-        <f>VLOOKUP(G37,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="I38" t="e">
-        <f>VLOOKUP(B38,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J38" t="e">
-        <f>VLOOKUP(C38,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K38" t="e">
-        <f>VLOOKUP(D38,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L38" t="e">
-        <f>VLOOKUP(E38,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M38" t="e">
-        <f>VLOOKUP(F38,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N38" t="e">
-        <f>VLOOKUP(G38,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
-      <c r="I39" t="e">
-        <f>VLOOKUP(B39,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J39" t="e">
-        <f>VLOOKUP(C39,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K39" t="e">
-        <f>VLOOKUP(D39,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L39" t="e">
-        <f>VLOOKUP(E39,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M39" t="e">
-        <f>VLOOKUP(F39,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N39" t="e">
-        <f>VLOOKUP(G39,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" s="1"/>
-      <c r="I40" t="e">
-        <f>VLOOKUP(B40,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J40" t="e">
-        <f>VLOOKUP(C40,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K40" t="e">
-        <f>VLOOKUP(D40,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L40" t="e">
-        <f>VLOOKUP(E40,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M40" t="e">
-        <f>VLOOKUP(F40,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N40" t="e">
-        <f>VLOOKUP(G40,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
-      <c r="I41" t="e">
-        <f>VLOOKUP(B41,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J41" t="e">
-        <f>VLOOKUP(C41,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K41" t="e">
-        <f>VLOOKUP(D41,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L41" t="e">
-        <f>VLOOKUP(E41,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M41" t="e">
-        <f>VLOOKUP(F41,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N41" t="e">
-        <f>VLOOKUP(G41,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="I42" t="e">
-        <f>VLOOKUP(B42,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J42" t="e">
-        <f>VLOOKUP(C42,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K42" t="e">
-        <f>VLOOKUP(D42,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L42" t="e">
-        <f>VLOOKUP(E42,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M42" t="e">
-        <f>VLOOKUP(F42,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N42" t="e">
-        <f>VLOOKUP(G42,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
-      <c r="I43" t="e">
-        <f>VLOOKUP(B43,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J43" t="e">
-        <f>VLOOKUP(C43,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K43" t="e">
-        <f>VLOOKUP(D43,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L43" t="e">
-        <f>VLOOKUP(E43,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M43" t="e">
-        <f>VLOOKUP(F43,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N43" t="e">
-        <f>VLOOKUP(G43,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="I44" t="e">
-        <f>VLOOKUP(B44,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J44" t="e">
-        <f>VLOOKUP(C44,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K44" t="e">
-        <f>VLOOKUP(D44,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L44" t="e">
-        <f>VLOOKUP(E44,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M44" t="e">
-        <f>VLOOKUP(F44,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N44" t="e">
-        <f>VLOOKUP(G44,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="I45" t="e">
-        <f>VLOOKUP(B45,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J45" t="e">
-        <f>VLOOKUP(C45,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K45" t="e">
-        <f>VLOOKUP(D45,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L45" t="e">
-        <f>VLOOKUP(E45,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M45" t="e">
-        <f>VLOOKUP(F45,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N45" t="e">
-        <f>VLOOKUP(G45,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="I46" t="e">
-        <f>VLOOKUP(B46,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J46" t="e">
-        <f>VLOOKUP(C46,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K46" t="e">
-        <f>VLOOKUP(D46,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L46" t="e">
-        <f>VLOOKUP(E46,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M46" t="e">
-        <f>VLOOKUP(F46,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N46" t="e">
-        <f>VLOOKUP(G46,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
-      <c r="I47" t="e">
-        <f>VLOOKUP(B47,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J47" t="e">
-        <f>VLOOKUP(C47,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K47" t="e">
-        <f>VLOOKUP(D47,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L47" t="e">
-        <f>VLOOKUP(E47,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M47" t="e">
-        <f>VLOOKUP(F47,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N47" t="e">
-        <f>VLOOKUP(G47,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
-      <c r="I48" t="e">
-        <f>VLOOKUP(B48,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J48" t="e">
-        <f>VLOOKUP(C48,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K48" t="e">
-        <f>VLOOKUP(D48,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L48" t="e">
-        <f>VLOOKUP(E48,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M48" t="e">
-        <f>VLOOKUP(F48,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N48" t="e">
-        <f>VLOOKUP(G48,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
-      <c r="I49" t="e">
-        <f>VLOOKUP(B49,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J49" t="e">
-        <f>VLOOKUP(C49,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K49" t="e">
-        <f>VLOOKUP(D49,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L49" t="e">
-        <f>VLOOKUP(E49,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M49" t="e">
-        <f>VLOOKUP(F49,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N49" t="e">
-        <f>VLOOKUP(G49,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
-      <c r="I50" t="e">
-        <f>VLOOKUP(B50,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J50" t="e">
-        <f>VLOOKUP(C50,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K50" t="e">
-        <f>VLOOKUP(D50,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L50" t="e">
-        <f>VLOOKUP(E50,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M50" t="e">
-        <f>VLOOKUP(F50,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N50" t="e">
-        <f>VLOOKUP(G50,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,</v>
-      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
-      <c r="I51" t="e">
-        <f>VLOOKUP(B51,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J51" t="e">
-        <f>VLOOKUP(C51,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K51" t="e">
-        <f>VLOOKUP(D51,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L51" t="e">
-        <f>VLOOKUP(E51,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M51" t="e">
-        <f>VLOOKUP(F51,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N51" t="e">
-        <f>VLOOKUP(G51,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="F51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
